--- a/biology/Médecine/Le_Chirurgien-Dentiste_de_France/Le_Chirurgien-Dentiste_de_France.xlsx
+++ b/biology/Médecine/Le_Chirurgien-Dentiste_de_France/Le_Chirurgien-Dentiste_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chirurgien-Dentiste de France (en abrégé CDF) est un magazine hebdomadaire d’information à destination des chirurgiens-dentistes et du monde dentaire, créé en décembre 1929. Il est l'organe de presse officiel de la Confédération nationale des syndicats dentaires (CNSD).
@@ -512,13 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CDF est composé de plusieurs rubriques : actualité, exercice et cabinet, environnement de santé, formation continue, culture et loisirs. Il est comporte en moyenne 64 pages.
-Les hors-séries
-Des cahiers spéciaux du Chirurgien-dentiste de France font le point régulièrement sur des thématiques particulières, liées à l’exercice professionnel (cahier du praticien, employeur, fiscalité, prévoyance, retraite, cessation d'activité), ou ponctuelles (CCAM, Dossier Bercy). 
-Depuis 2007, un tiré-à-part rassemble également chaque année une sélection des meilleurs articles scientifiques déjà parus, effectuée par un jury issu du comité de lecture.
-En 1992, une étude historique de référence, intitulée « 1699-1892 : histoire d’un diplôme » sous la direction de François Vidal (1922-2001), président d’honneur de la Société française d’histoire de l’art dentaire (SFHAD), est publiée en dix fascicules, de janvier à novembre, en supplément du CDF.
 </t>
         </is>
       </c>
@@ -544,14 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tirage</t>
+          <t>Présentation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2014 : 16 000 ex[2].
-2013 : 14 500 ex.
-2012 : 16 000 ex.</t>
+          <t>Les hors-séries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des cahiers spéciaux du Chirurgien-dentiste de France font le point régulièrement sur des thématiques particulières, liées à l’exercice professionnel (cahier du praticien, employeur, fiscalité, prévoyance, retraite, cessation d'activité), ou ponctuelles (CCAM, Dossier Bercy). 
+Depuis 2007, un tiré-à-part rassemble également chaque année une sélection des meilleurs articles scientifiques déjà parus, effectuée par un jury issu du comité de lecture.
+En 1992, une étude historique de référence, intitulée « 1699-1892 : histoire d’un diplôme » sous la direction de François Vidal (1922-2001), président d’honneur de la Société française d’histoire de l’art dentaire (SFHAD), est publiée en dix fascicules, de janvier à novembre, en supplément du CDF.
+</t>
         </is>
       </c>
     </row>
@@ -576,13 +593,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Historique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Successeur de "La Presse Dentaire" créée en 1914[3], le magazine publie son premier numéro en janvier 1929 sous le nom de « Le Dentiste de France ». Publication mensuelle de janvier 1936 à 1939, interrompue de 1940 à la Libération, bimensuel de 1946 à avril 1963, puis décadaire, il devient définitivement hebdomadaire en avril 1965. 
-</t>
+          <t>Tirage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2014 : 16 000 ex.
+2013 : 14 500 ex.
+2012 : 16 000 ex.</t>
         </is>
       </c>
     </row>
@@ -607,10 +627,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Successeur de "La Presse Dentaire" créée en 1914, le magazine publie son premier numéro en janvier 1929 sous le nom de « Le Dentiste de France ». Publication mensuelle de janvier 1936 à 1939, interrompue de 1940 à la Libération, bimensuel de 1946 à avril 1963, puis décadaire, il devient définitivement hebdomadaire en avril 1965. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Chirurgien-Dentiste_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Chirurgien-Dentiste_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Rédacteurs en chef (depuis 1978)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1978 Dr Serge Tardy
 1990 Dr Georges-Eric Ernouf
